--- a/exoutput.xlsx
+++ b/exoutput.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="抹茶商品リスト" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,32 +413,99 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>商品名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ファイル元</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>抹茶チョコ</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ex1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>抹茶ラテ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ex1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>抹茶アイス</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ex1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>抹茶ソフトクリーム</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ex1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>抹茶あいす</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ex2.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>最中抹茶金時</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ex2.xlsx</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>